--- a/2022年度/人事調査表/人事調査表.xlsx
+++ b/2022年度/人事調査表/人事調査表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a6fcaf58e44607b/デスクトップ/自己研鑽用/02_FT勉強会/2022年度/人事調査表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{658578A3-2EDF-49CA-9464-0F9848468D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C24FCC8-D378-4E93-8016-4D9EC305ECC6}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{658578A3-2EDF-49CA-9464-0F9848468D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F2FC74-5A67-4DD2-99DF-921AD313C275}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{CD2C2274-54BA-4BE8-90EC-1429F119FE86}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{CD2C2274-54BA-4BE8-90EC-1429F119FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="パフォーマンス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
   <si>
     <t>私のなりたい姿</t>
     <rPh sb="0" eb="1">
@@ -2303,54 +2303,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【メモ】
-・主担当（）</t>
-    <rPh sb="6" eb="9">
-      <t>シュタントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・1 for 1 担当
-・社内トレーニーでの講師で既存の資料の高度化を実施（資料の確認と最新情報への更新）
-・</t>
-    <rPh sb="9" eb="11">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>コウドカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>サイシンジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>コウシン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2379,233 +2332,266 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社内トレーニーにおいて，先方の担当業務を確認しつつ当日の企画を策定する．学生向けイベントでは，部内外の関係者と協力しつつ，</t>
+    <t>自身が主導する案件において、適宜依頼部との打合せを設けることで、依頼部のニーズに沿った分析を実施する。また、後輩へのサポートを実施しつつ、案件の進捗管理を行うことで、期限までに業務を完遂する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インターンシップにて、参加者の満足度向上を目指し、依頼部門や参加者のニーズに沿った企画立案などを主導する。また、１ｆｏｒ１担当者として、新入社員の個性を鑑みた対話を通じて、社会人として自立させる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産形成・承継事業に向けた運用戦略について、第一生命の業務への適用に向けて、他社での事例などを調査する。また、上位者への報告・提案や調査方針の摺合わせを通じて、期日までに調査を完遂し部内外に報告する。</t>
     <rPh sb="0" eb="2">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センポウ</t>
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウンヨウ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
       <t>ギョウム</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="31" eb="33">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ジョウイシャ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>スリ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンスイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上位者が主導する案件にて、案件遂行上で必要となる知識を習得し、俯瞰的に案件概要を理解する。加えて、付与された業務の進捗を確認しつつ、適宜上位者と共に分析方針を検討しながら期日までに業務を遂行する。</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フカン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウジツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクテイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ブナイガイ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>カンケイシャ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>キョウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EEV計測サポート案件に関する案件にて，主担当として案件の進捗を管理や先方への報告を行いつつ，期日までに作業を完遂させる．加えて，時宜を得た助言とサポートを行うことで，後輩の育成にも貢献する．</t>
-    <rPh sb="3" eb="5">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="66" eb="68">
+      <t>テキギ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ジョウイシャ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>スイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールＧｉｔＨｕｂについて、部内外から意見聴取を行い、習得・活用のための教材を作成、部内全体に利用を浸透させる。また、資料を社内に展開し、誰でも独力でＧｉｔＨｕｂを活用できる環境を作る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在は個別にて照会・対応している案件スケジュールの対応削減、期日までの確実な案件開始・完了のため、案件スケジュールを自動で部内へ伝達するツールを開発し、そのノウハウを部内外へ展開する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールＧｉｔＨｕｂに関する勉強会を実施し、</t>
+    <rPh sb="17" eb="18">
       <t>カン</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>アンケン</t>
-    </rPh>
     <rPh sb="20" eb="23">
-      <t>シュタントウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センポウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キジツ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンスイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジギ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジョゲン</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>コウハイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>イクセイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>コウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リスク管理等のサポート案件において，案件概要を俯瞰的に捉え，自担当業務の役割を明確化する．また，関係者と議論しつつ，案件遂行上の課題に対する対応策を策定することで，成果物の品質向上に貢献する．</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>フカンテキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トラ</t>
-    </rPh>
-    <rPh sb="30" eb="35">
-      <t>ジタントウギョウム</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>メイカクカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>スイコウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>サクテイ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>セイカブツ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>コウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バージョン管理の導入について．</t>
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールのGitHubの利用促進に向けて、部員が</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第一生命の資産運用技術の向上に資する基礎研究にて，関係者と+</t>
-    <rPh sb="0" eb="2">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>カンケイシャ</t>
+    <rPh sb="18" eb="22">
+      <t>リヨウソクシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【視点①】
+GitHubを誰でも利用できる環境を構築した．また，Githubとは別のツールをOfficeツールの差分を確認できる
+【視点②】
+外債案件では，GitHubを活用したコードレビューを実施した．コード</t>
+    <rPh sb="13" eb="14">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>ガイサイアンケン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3327,15 +3313,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3357,30 +3415,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3396,74 +3436,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3975,8 +3961,8 @@
   </sheetPr>
   <dimension ref="B1:AF44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B22" zoomScale="90" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:N24"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -3999,157 +3985,157 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="56" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="57"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="51"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="51"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="57"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="51"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="57"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="51"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="51"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="57"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="51"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="57"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="59"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="2:32" ht="18.75" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44" t="s">
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44" t="s">
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
       <c r="V14" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="W14" s="86"/>
+      <c r="W14" s="44"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37" t="s">
@@ -4165,42 +4151,42 @@
       <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65" t="s">
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="64" t="s">
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64" t="s">
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="64"/>
-      <c r="T15" s="66"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="47"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="84"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="71"/>
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
     </row>
@@ -4208,93 +4194,93 @@
       <c r="B16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="61" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61" t="s">
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61" t="s">
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="47"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="80"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="71"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
     </row>
     <row r="17" spans="2:32" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="71" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71" t="s">
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71" t="s">
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="S17" s="72"/>
-      <c r="T17" s="73"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="47"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="65"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="71"/>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
     </row>
     <row r="18" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B18" s="75"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="str">
@@ -4325,222 +4311,224 @@
         <f>LEN(R17)&amp;"/50"</f>
         <v>38/50</v>
       </c>
-      <c r="V18" s="76"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="47"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="71"/>
       <c r="AE18" s="34"/>
       <c r="AF18" s="34"/>
     </row>
     <row r="19" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69" t="s">
+      <c r="C19" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="70"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="47"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="71"/>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35"/>
     </row>
     <row r="20" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B20" s="67"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="70"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="47"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="71"/>
       <c r="AE20" s="35"/>
       <c r="AF20" s="35"/>
     </row>
     <row r="21" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B21" s="67"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="70"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="47"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="62"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="71"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="67"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="70"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="47"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="71"/>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
     </row>
     <row r="23" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B23" s="67"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="70"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="47"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="62"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="71"/>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B24" s="67"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="70"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="47"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="62"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="71"/>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="68"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="str">
         <f>LEN(C19)&amp;"/100"</f>
-        <v>15/100</v>
+        <v>92/100</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -4552,25 +4540,25 @@
       <c r="J25" s="12"/>
       <c r="K25" s="13" t="str">
         <f>LEN(I19)&amp;"/100"</f>
-        <v>96/100</v>
+        <v>98/100</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
       <c r="N25" s="13" t="str">
         <f>LEN(L19)&amp;"/100"</f>
-        <v>30/100</v>
+        <v>100/100</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="13" t="str">
         <f>LEN(O19)&amp;"/100"</f>
-        <v>61/100</v>
+        <v>98/100</v>
       </c>
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
       <c r="T25" s="14" t="str">
         <f>LEN(R19)&amp;"/100"</f>
-        <v>0/100</v>
+        <v>100/100</v>
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="40"/>
@@ -4590,33 +4578,29 @@
       <c r="AF25" s="34"/>
     </row>
     <row r="26" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="70"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -4630,25 +4614,25 @@
       <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B27" s="67"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="70"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="62"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -4662,25 +4646,25 @@
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B28" s="67"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="70"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="62"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -4694,25 +4678,25 @@
       <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B29" s="67"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="70"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="62"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -4726,25 +4710,25 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="70"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="62"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -4758,25 +4742,25 @@
       <c r="AF30" s="35"/>
     </row>
     <row r="31" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B31" s="67"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="70"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="62"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -4790,25 +4774,25 @@
       <c r="AF31" s="35"/>
     </row>
     <row r="32" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B32" s="67"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="70"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="62"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -4822,25 +4806,25 @@
       <c r="AF32" s="35"/>
     </row>
     <row r="33" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="67"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="70"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="62"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -4854,7 +4838,7 @@
       <c r="AF33" s="35"/>
     </row>
     <row r="34" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="68"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13" t="str">
@@ -4865,13 +4849,13 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13" t="str">
         <f>LEN(F26)&amp;"/150"</f>
-        <v>11/150</v>
+        <v>0/150</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
       <c r="K34" s="13" t="str">
         <f>LEN(I26)&amp;"/150"</f>
-        <v>1/150</v>
+        <v>0/150</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -4883,13 +4867,13 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="13" t="str">
         <f>LEN(O26)&amp;"/150"</f>
-        <v>55/150</v>
+        <v>0/150</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
       <c r="T34" s="14" t="str">
         <f>LEN(R26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>28/150</v>
       </c>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
@@ -4904,27 +4888,27 @@
       <c r="AF34" s="34"/>
     </row>
     <row r="35" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="70"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="62"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -4938,25 +4922,25 @@
       <c r="AF35" s="35"/>
     </row>
     <row r="36" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="67"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="70"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="62"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -4970,25 +4954,25 @@
       <c r="AF36" s="35"/>
     </row>
     <row r="37" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B37" s="67"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="70"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="62"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -5002,25 +4986,25 @@
       <c r="AF37" s="35"/>
     </row>
     <row r="38" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B38" s="67"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="70"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="62"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -5034,25 +5018,25 @@
       <c r="AF38" s="35"/>
     </row>
     <row r="39" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B39" s="67"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="70"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="62"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -5066,25 +5050,25 @@
       <c r="AF39" s="35"/>
     </row>
     <row r="40" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B40" s="67"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="70"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="62"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -5098,25 +5082,25 @@
       <c r="AF40" s="35"/>
     </row>
     <row r="41" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B41" s="67"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="70"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="62"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -5130,25 +5114,25 @@
       <c r="AF41" s="35"/>
     </row>
     <row r="42" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B42" s="67"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="70"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="62"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -5162,7 +5146,7 @@
       <c r="AF42" s="35"/>
     </row>
     <row r="43" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="68"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="str">
@@ -5214,6 +5198,39 @@
     <row r="44" spans="2:32" ht="18.75" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="Z15:AC24"/>
+    <mergeCell ref="B3:D12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C15:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:E24"/>
+    <mergeCell ref="F19:H24"/>
+    <mergeCell ref="I19:K24"/>
+    <mergeCell ref="L19:N24"/>
+    <mergeCell ref="O19:Q24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="R26:T33"/>
+    <mergeCell ref="R19:T24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
     <mergeCell ref="E3:H12"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="V15:Y24"/>
@@ -5230,39 +5247,6 @@
     <mergeCell ref="I26:K33"/>
     <mergeCell ref="L26:N33"/>
     <mergeCell ref="O26:Q33"/>
-    <mergeCell ref="R26:T33"/>
-    <mergeCell ref="R19:T24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:E24"/>
-    <mergeCell ref="F19:H24"/>
-    <mergeCell ref="I19:K24"/>
-    <mergeCell ref="L19:N24"/>
-    <mergeCell ref="O19:Q24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="Z15:AC24"/>
-    <mergeCell ref="B3:D12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C15:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5276,13 +5260,506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17460D-D00D-450C-BF8C-D5F3DD290267}">
-  <dimension ref="B1:H29"/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="27.625" style="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.625" style="15" customWidth="1"/>
+    <col min="7" max="8" width="79.125" style="15" customWidth="1"/>
+    <col min="9" max="10" width="1.625" customWidth="1"/>
+    <col min="11" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B3" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="89"/>
+    </row>
+    <row r="4" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="85"/>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="85"/>
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="85"/>
+      <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+    </row>
+    <row r="7" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="85"/>
+      <c r="C9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+    </row>
+    <row r="10" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="85"/>
+      <c r="C10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="87"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="85"/>
+      <c r="C13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+    </row>
+    <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="85"/>
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+    </row>
+    <row r="15" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B16" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="85"/>
+      <c r="C17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+    </row>
+    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="85"/>
+      <c r="C18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" ht="75" x14ac:dyDescent="0.4">
+      <c r="B20" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="85"/>
+      <c r="C21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+    </row>
+    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="85"/>
+      <c r="C22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="85"/>
+      <c r="C23" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="6"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="B25" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="87"/>
+    </row>
+    <row r="26" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="85"/>
+      <c r="C26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+    </row>
+    <row r="27" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="85"/>
+      <c r="C27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+    </row>
+    <row r="28" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="G25:G27"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B06DA12-3D5D-4129-A9B1-DB0CB826877A}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -5316,7 +5793,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="88" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -5325,63 +5802,63 @@
       <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="78"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="80"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="78"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="78"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
@@ -5392,7 +5869,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -5401,47 +5878,47 @@
       <c r="D8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="87" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="78"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="78"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="21"/>
@@ -5452,7 +5929,7 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="85" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5461,47 +5938,47 @@
       <c r="D12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="87" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="78"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="20" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="80"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="78"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="20" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="80"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21"/>
@@ -5512,7 +5989,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="85" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -5521,47 +5998,47 @@
       <c r="D16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="20" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="86" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="78"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="20" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="18" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="78"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="20" t="s">
         <v>81</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21"/>
@@ -5572,7 +6049,7 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="85" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -5581,63 +6058,63 @@
       <c r="D20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="20" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="86" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="78"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="20" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="78"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="20" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="81"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="78"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
@@ -5648,7 +6125,7 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="85" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -5660,15 +6137,15 @@
       <c r="E25" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="87" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="78"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="20" t="s">
         <v>106</v>
       </c>
@@ -5678,13 +6155,13 @@
       <c r="E26" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="87"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="78"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="20" t="s">
         <v>110</v>
       </c>
@@ -5694,10 +6171,10 @@
       <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="80"/>
+      <c r="G27" s="87"/>
     </row>
     <row r="28" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="26"/>
@@ -5710,472 +6187,18 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="G12:G14"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B06DA12-3D5D-4129-A9B1-DB0CB826877A}">
-  <dimension ref="B1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="6" width="30.625" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="89.625" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="16384" width="9" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="78"/>
-      <c r="C4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="80"/>
-    </row>
-    <row r="5" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="78"/>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="80"/>
-    </row>
-    <row r="6" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="78"/>
-      <c r="C6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="78"/>
-      <c r="C9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="78"/>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="80"/>
-    </row>
-    <row r="11" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B12" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="78"/>
-      <c r="C13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="80"/>
-    </row>
-    <row r="14" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="78"/>
-      <c r="C14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="15" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="78"/>
-      <c r="C17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="81"/>
-    </row>
-    <row r="18" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="78"/>
-      <c r="C18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="81"/>
-    </row>
-    <row r="19" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B20" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="78"/>
-      <c r="C21" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="81"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="78"/>
-      <c r="C22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="81"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="78"/>
-      <c r="C23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="81"/>
-    </row>
-    <row r="24" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B25" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="78"/>
-      <c r="C26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="80"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="78"/>
-      <c r="C27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="80"/>
-    </row>
-    <row r="28" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022年度/人事調査表/人事調査表.xlsx
+++ b/2022年度/人事調査表/人事調査表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a6fcaf58e44607b/デスクトップ/自己研鑽用/02_FT勉強会/2022年度/人事調査表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{658578A3-2EDF-49CA-9464-0F9848468D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F2FC74-5A67-4DD2-99DF-921AD313C275}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="8_{658578A3-2EDF-49CA-9464-0F9848468D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BD402C-901E-4528-A98A-88F7887EF891}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{CD2C2274-54BA-4BE8-90EC-1429F119FE86}"/>
+    <workbookView xWindow="-12000" yWindow="-15870" windowWidth="24270" windowHeight="15990" activeTab="2" xr2:uid="{CD2C2274-54BA-4BE8-90EC-1429F119FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="パフォーマンス" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
   <si>
     <t>私のなりたい姿</t>
     <rPh sb="0" eb="1">
@@ -1720,12 +1720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【視点①】
-【視点②】
-【視点③】</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>視点①　業務遂行</t>
     <rPh sb="0" eb="3">
       <t>シテン1</t>
@@ -2530,19 +2524,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バージョン管理ツールＧｉｔＨｕｂに関する勉強会を実施し、</t>
-    <rPh sb="17" eb="18">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ベンキョウカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バージョン管理ツールのGitHubの利用促進に向けて、部員が</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -2559,40 +2540,471 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【視点①】
-GitHubを誰でも利用できる環境を構築した．また，Githubとは別のツールをOfficeツールの差分を確認できる
-【視点②】
-外債案件では，GitHubを活用したコードレビューを実施した．コード</t>
+    <t>案件の開始・完了に伴う対応スケジュールの自動展開について、案件事務担当者のニーズヒアリングを実施した。また、ＲＰＡツールで併用できる箇所の確認とツールデザインに着手し、事務担当者に確認いただくなど、期末に実施予定である自動化ツールの開発・マニュアル作成の準備を整えることが出来た。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>案件開始・完了に伴う対応スケジュールを自動展開するツールの運転を開始した。事前に関係者へ開始または完了予定の案件を確認するフローを新たに追加したことで、事務の遅滞を防止した。加えて、案件事務担当者へのヒアリング結果を基に、事務作業の時間削減を目的とした機能を追加実装、ツールの関連情報を部外展開した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外国債券部宛ての社債ファクター投資にて主担当として、先方との連絡窓口を務めた。再推計や追加分析の依頼があったが、上位者のサポートの下、当初のスケジュールと追加の対応事項を勘案しつつ、再調整した。ＥＥＶ計測サポート案件では後輩の業務進捗を確認しつつ、適宜サポートに回ることで分析作業を完遂した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外国債券部宛ての社債ファクター投資にて主担当として、先方への報告・連絡窓口を務めた。先方の業務を踏まえ、追加したほうが良い機能を検討、上位者へ提案した上で期日までに納品ツールを作成した。ＥＥＶ計測サポート案件では、繁忙時期を考慮した事前の分析・後輩のサポートを行うことで、期日までの納品を完遂した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏季インターンにて、クオンツ課題の講義・演習に関する講師を務めた。当日の企画・策定では、上位者のサポートの下、昨年度の参加者アンケート結果を踏まえた講義内容を作成した。１ｆｏｒ１担当者として週２回の面談に加え、新入社員の上司と情報交換を行うことで新入社員の個性を把握し、成長に向けたサポートを行った。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冬季インターンにて、金融工学に関する講義・演習に関する講師を務めた。参加者の満足度向上に寄与するため，夏季インターンシップの運営で露呈した問題点等を踏まえた改善案を策定した。また、１ｆｏｒ１担当者として定期的な面談を実施しつつ，適宜業務上のアドバイスを行う等，独り立ちに向けたサポートを継続した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産形成・承継事業に関する基礎研究にて、チーム内ですり合わせを実施しながら、昨年度下期に作成した老後資金に関する指標の高度化を行った。また、分析結果を上位者へ報告するだけでなく、上位者作成のコードレビューや自担当外の報告書内容の確認を行うなど、期限までに全体作業が終わるように対応した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産形成・承継事業に関する基礎研究にて、上位者より依頼された積立手法を実装した。また、作成コードを後輩へ連携し、適宜分析のサポートを行うなど、期限までに全体作業が終わるように対応した。併せて、退職金に関する指標の高度化のため，主体的に研究に関連した文献を調査し，チームメンバーの情報連携した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経済環境シナリオ生成ツールのレベルアップ案件にて、受領資料を確認し、ツールの改良が必要な箇所を把握した上で作業計画を策定した。ツール作成では、算出結果の分析を踏まえ、先方へ確認の必要があるロジックを上位者に助言いただき、先方へ確認を取ることで、ニーズに沿ったツールを作成、期日までに納品した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>与信集中リスクに関する案件にて、ＤＦＬが導入検討中の新たなリスク評価手法について、上位者に相談しつつ複数パターンでの検証を行い、分析結果を期日までに報告書にまとめた。また、総合審査部宛のトレーニー受入では、受入当日までに分析案を作成し、参加者と摺合わせを行うことで、当日の安定的な運営に貢献した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールＧｉｔＨｕｂの部内利用促進に向けて、勉強会を企画し、ＧｉｔＨｕｂの利用方法等を体験してもらった。加えて、部員が自由にＧｉｔＨｕｂを利用できる環境を作成し、過去担当者作成のマニュアルを参照つつ操作してもらうことで、説明が難解な箇所に関する意見を聴収し、マニュアルの改善に取り組んだ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールＧｉｔＨｕｂの部内利用促進に向けて、企画した勉強会の内容を基に、ＧｉｔＨｕｂの基本操作方法をまとめた資料を新規作成し、部内外へ展開した。また、関係者からのヒアリング結果をもとにマニュアルの改善と新任者の理解度向上に向けた課題作成等、継続的な利用促進に向けた仕組み作りを主導した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初配属時より担当しているＥＥＶ計測サポート案件においては、主担当として案件全体のスケジュールを管理し、適宜後輩のアドバイスを行いながら所定の作業を期日までに完遂させる。また、外債部宛てのファクター投資など、金融市場データの分析に関わる案件では、案件遂行上で必要となる知識を把握し、案件概要を咀嚼した上で、作業に取り組む。庶務担当において、案件事務のＲＰＡ推進におけるＧｉｔＨｕｂの活用事例をバージョン管理担当者に共有し、組織内でのＧｉｔＨｕｂ導入促進に貢献する。１ｆｏｒ１担当者として、定期的な打合せを行い、業務上のサポートや相談に乗ることで、１年目社員が安定的に業務を遂行できる環境作りに貢献する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年度中に証券アナリストの１次試験を全科目合格する。また、部内外の勉強会を通じて、確率金利モデルやデータ解析などの担当案件に関連する事項を中心に学習する。ＩＴリテラシーに関して、１０月の応用情報技術者試験に向けた勉強を実施する。また、Ｕｄｅｍｙなどのｅ－ラーニングを活用した主要プログラミング言語の継続的学習を行う。語学力向上に関しては、今年度中にＴＯＥＩＣ８００点以上獲得を目指して、公式問題集やアプリなどを活用した学習を継続する。生命保険経営学会が刊行する書籍を通じて、保険商品開発等の生命保険業務への理解を深めていく。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記載事項</t>
+    <rPh sb="0" eb="4">
+      <t>キサイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールの１つであるＧｉｔＨｕｂについて、部内での利用頻度が少ない問題を解決するため、部員に現状のヒアリングやＨＰでの調査を実施した。現在のマニュアルが分かりにくいという意見を受け、案件外で自由にＧｉｔＨｕｂを利用できる雛形の環境を作成し取り組みやさを向上、多くの部員が基本的な操作が出来る状態にした。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＥＥＶ計測サポート案件、社債ファクター投資案件、ＧｉｔＨｕｂ勉強会や新入社員勉強会にて、定期的に新入社員とコミュニケーションを取るなど、新入社員ごとに異なる性格や得手不得手の理解に取り組んだ。また、各新入社員に応じたフォローを実施、関係者等と情報共有を行うことで、必要に応じたサポートや知見の共有を実施した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏季インターンシップのアンケートや、関係者へのヒアリングを通じて運営上の課題点を洗い出すとともに、冬季の運営改善案やクオンツ業務に関するグループワーク課題のレベルアップ案を策定した。課題作成では、上記の改善点と当日の進行を考慮した作業計画を立てることで、期日内に作業を完遂した。また、インターン当日の安定的な運営のため、参加者の想定質問や起こりうる問題を事前に洗い出し、解決策等を関係者に連携した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＥＥＶ計測用の経済環境シナリオ生成ツールのレベルアップ案件にて、ヒューマンエラーによる分析ミスを事前に防ぐため、ツールのデザインを工夫した。また、運用サービス部宛ての社内トレーニー案件では、講義用パワーポイント資料の新規作成にあたり、資料の体裁の一致、クオリティの担保を目的とした講義資料の雛形を作成し、関係者へ連携・資料作成を依頼した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報編集</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビジョン形成</t>
+    <rPh sb="4" eb="6">
+      <t>ケイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調整統合</t>
+    <rPh sb="0" eb="4">
+      <t>チョウセイトウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リーダーシップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフェッショナル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１ｆｏｒ１担当者として週２回の面談を実施し、新入社員の業務内容やＳＬ獲得に向けたサポートを実施するだけでなく、日常会話などを定期的に挟むなど信頼関係の構築に注力し、日常の変化に関するアドバイスも実施した。また、新入社員と担当した案件においては、上位者の方針や後輩の知識レベルを考慮しながら、ＯＪＴなどの指導を行い、期限内に案件を完了することが出来た。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下期では、各案件の繁忙期が重なることを考慮し、事前にＥＥＶ計測サポート案件や冬季インターンシップの準備を前倒しで実施した。また、案件が繁忙期を迎えた際は、他案件の担当者へ相談し、一部作業を依頼する等、関係者の協力を仰ぐことで、複数案件を同時にミスなく対応した。ＥＥＶ計測サポート案件では、検証作業の一部を後輩に依頼し、検証結果を上位者へ報告する等、納品物の品質保証に向けた作業を期日までに完遂した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報を組み合わせたりとらえ直したりすることによって，新たな価値を創造する</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
     <rPh sb="13" eb="14">
-      <t>ダレ</t>
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事業や組織全体の目指す姿を描き，実現への道筋を示す</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ソシキゼンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エガ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>リヨウ</t>
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミチスジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戦略を展開する上で発生する，組織・ステークホルダー間の対立・葛藤・矛盾を工事の目的に沿って解消する</t>
+    <rPh sb="0" eb="2">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイリツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カットウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムジュン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>世の中や周囲の変化に関心を持ち，得られた情報を正確に理解し，処女区部署や担当業務に活用する</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショジョ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上位方針を踏まえて，担当分野・領域における短期的な動向を見通す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>タントウブンヤ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リョウイキ</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウチク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="71" eb="75">
-      <t>ガイサイアンケン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>カツヨウ</t>
+      <t>タンキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ミトオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関係者の利害が異なる状況であっても，自己の利害にとらわれず話し合いにより担当業務を円滑に進めることができる．
+案件依頼元に担当者として信頼されるとともに課題を正確に把握し，ニーズに沿った具体的な案件の提案ができる．
+過去案件，継続案件の経緯を把握したうえで，案件依頼を整理し，的確な提案ができる．</t>
+    <rPh sb="0" eb="2">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リガイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リガイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>タントウギョウム</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>エンカツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="60">
+      <t>アンケンイライモト</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>グタイテキ</t>
     </rPh>
     <rPh sb="97" eb="99">
-      <t>ジッシ</t>
-    </rPh>
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="108" eb="112">
+      <t>カコアンケン</t>
+    </rPh>
+    <rPh sb="113" eb="117">
+      <t>ケイゾクアンケン</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ケイイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>テキカク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自ら率先して後輩の模範となる仕事ぶり（姿勢・行動・発言）を示し，同僚や後輩にプラスとなる刺激や影響を与える</t>
+    <rPh sb="0" eb="1">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソッセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モハン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シゲキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>所属する課組織の同僚・後輩</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カソシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後輩の模範</t>
+    <rPh sb="0" eb="2">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１ｆｏｒ１担当者として新入社員との週２回の面談を実施し、新入社員の業務上の悩み解決に向けたサポートを実施した。また、新入社員の上司だけでなく案件関係者とも適宜情報交換を行うことで、チーム全体で新入社員をサポート出来るように働きかけた。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2603,7 +3015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="@&quot;%&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2651,6 +3063,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2685,12 +3105,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3174,13 +3594,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3316,140 +3907,218 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3621,9 +4290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>523120</xdr:colOff>
+      <xdr:colOff>517405</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>230392</xdr:rowOff>
+      <xdr:rowOff>65609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3961,185 +4630,185 @@
   </sheetPr>
   <dimension ref="B1:AF44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15:Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="0" customHeight="1" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="20" width="9.125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="20" width="9.09765625" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="2.5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="29" width="9.125" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="2.125" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9.125" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9.125" style="29" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="2.125" customWidth="1"/>
+    <col min="22" max="29" width="9.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="2.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9.09765625" style="29" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="2.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="73"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="75"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="73"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="75"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+    <row r="5" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="73"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="75"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
+    <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="73"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="75"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+    <row r="7" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="73"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="75"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
+    <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="73"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="75"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+    <row r="9" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="73"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="75"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
+    <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="73"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="75"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+    <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="73"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="77"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+    <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="75"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="2:32" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69" t="s">
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69" t="s">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69" t="s">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
       <c r="V14" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W14" s="44"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA14" s="37"/>
       <c r="AB14" s="37"/>
@@ -4147,140 +4816,144 @@
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
     </row>
-    <row r="15" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="82" t="s">
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82" t="s">
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="82"/>
-      <c r="T15" s="84"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="71"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="62"/>
+      <c r="V15" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="W15" s="85"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="68"/>
       <c r="AE15" s="31"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="66" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66" t="s">
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66" t="s">
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="66"/>
-      <c r="T16" s="80"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="71"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="68"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
     </row>
-    <row r="17" spans="2:32" ht="50.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="2:32" ht="50.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="S17" s="64"/>
-      <c r="T17" s="65"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="71"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="68"/>
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
     </row>
-    <row r="18" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B18" s="68"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+    <row r="18" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="67"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9" t="str">
@@ -4311,219 +4984,219 @@
         <f>LEN(R17)&amp;"/50"</f>
         <v>38/50</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="71"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="68"/>
       <c r="AE18" s="34"/>
       <c r="AF18" s="34"/>
     </row>
-    <row r="19" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B19" s="59" t="s">
+    <row r="19" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61" t="s">
+      <c r="C19" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61" t="s">
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61" t="s">
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="S19" s="61"/>
-      <c r="T19" s="62"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="71"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="68"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="68"/>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35"/>
     </row>
-    <row r="20" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B20" s="59"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="62"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="71"/>
+    <row r="20" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="68"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="68"/>
       <c r="AE20" s="35"/>
       <c r="AF20" s="35"/>
     </row>
-    <row r="21" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="62"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="71"/>
+    <row r="21" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="68"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="68"/>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
     </row>
-    <row r="22" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="59"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="62"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="71"/>
+    <row r="22" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="68"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="68"/>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
     </row>
-    <row r="23" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B23" s="59"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="62"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="71"/>
+    <row r="23" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="68"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="68"/>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35"/>
     </row>
-    <row r="24" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B24" s="59"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="62"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="71"/>
+    <row r="24" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="63"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="68"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="68"/>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35"/>
     </row>
-    <row r="25" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="60"/>
+    <row r="25" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="64"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13" t="str">
@@ -4565,42 +5238,52 @@
       <c r="X25" s="40"/>
       <c r="Y25" s="13" t="str">
         <f>LEN(V15)&amp;"/300"</f>
-        <v>0/300</v>
+        <v>300/300</v>
       </c>
       <c r="Z25" s="41"/>
       <c r="AA25" s="40"/>
       <c r="AB25" s="40"/>
       <c r="AC25" s="14" t="str">
         <f>LEN(Z15)&amp;"/300"</f>
-        <v>0/300</v>
+        <v>262/300</v>
       </c>
       <c r="AE25" s="34"/>
       <c r="AF25" s="34"/>
     </row>
-    <row r="26" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B26" s="59" t="s">
+    <row r="26" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61" t="s">
+      <c r="C26" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="S26" s="61"/>
-      <c r="T26" s="62"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" s="65"/>
+      <c r="T26" s="68"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -4613,26 +5296,26 @@
       <c r="AE26" s="35"/>
       <c r="AF26" s="35"/>
     </row>
-    <row r="27" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B27" s="59"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="62"/>
+    <row r="27" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="63"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="68"/>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -4645,26 +5328,26 @@
       <c r="AE27" s="35"/>
       <c r="AF27" s="35"/>
     </row>
-    <row r="28" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B28" s="59"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="62"/>
+    <row r="28" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="63"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="68"/>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -4677,26 +5360,26 @@
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
     </row>
-    <row r="29" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B29" s="59"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
+    <row r="29" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="63"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="68"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -4709,26 +5392,26 @@
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
     </row>
-    <row r="30" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B30" s="59"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="62"/>
+    <row r="30" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="63"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="68"/>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -4741,26 +5424,26 @@
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
     </row>
-    <row r="31" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B31" s="59"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="62"/>
+    <row r="31" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="68"/>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -4773,26 +5456,26 @@
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
     </row>
-    <row r="32" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B32" s="59"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="62"/>
+    <row r="32" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="63"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="68"/>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -4805,26 +5488,26 @@
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
     </row>
-    <row r="33" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="59"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="62"/>
+    <row r="33" spans="2:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="63"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="68"/>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -4837,43 +5520,43 @@
       <c r="AE33" s="35"/>
       <c r="AF33" s="35"/>
     </row>
-    <row r="34" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="60"/>
+    <row r="34" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="64"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13" t="str">
         <f>LEN(C26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>140/150</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="13" t="str">
         <f>LEN(F26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>146/150</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
       <c r="K34" s="13" t="str">
         <f>LEN(I26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>150/150</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
       <c r="N34" s="13" t="str">
         <f>LEN(L26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>143/150</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="13" t="str">
         <f>LEN(O26)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>146/150</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
       <c r="T34" s="14" t="str">
         <f>LEN(R26)&amp;"/150"</f>
-        <v>28/150</v>
+        <v>150/150</v>
       </c>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
@@ -4887,28 +5570,40 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="34"/>
     </row>
-    <row r="35" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B35" s="59" t="s">
+    <row r="35" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="62"/>
+      <c r="C35" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="S35" s="65"/>
+      <c r="T35" s="68"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -4921,26 +5616,26 @@
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
     </row>
-    <row r="36" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B36" s="59"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="62"/>
+    <row r="36" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="63"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="68"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -4953,26 +5648,26 @@
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
     </row>
-    <row r="37" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B37" s="59"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="62"/>
+    <row r="37" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B37" s="63"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="68"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -4985,26 +5680,26 @@
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
     </row>
-    <row r="38" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B38" s="59"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="62"/>
+    <row r="38" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="63"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="68"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -5017,26 +5712,26 @@
       <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
     </row>
-    <row r="39" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B39" s="59"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="62"/>
+    <row r="39" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" s="63"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="68"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -5049,26 +5744,26 @@
       <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
     </row>
-    <row r="40" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B40" s="59"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="62"/>
+    <row r="40" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="63"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="68"/>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -5081,26 +5776,26 @@
       <c r="AE40" s="35"/>
       <c r="AF40" s="35"/>
     </row>
-    <row r="41" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B41" s="59"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="62"/>
+    <row r="41" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="63"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="68"/>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -5113,26 +5808,26 @@
       <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
     </row>
-    <row r="42" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B42" s="59"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="62"/>
+    <row r="42" spans="2:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="63"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="68"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -5145,43 +5840,43 @@
       <c r="AE42" s="35"/>
       <c r="AF42" s="35"/>
     </row>
-    <row r="43" spans="2:32" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="60"/>
+    <row r="43" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" s="64"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="str">
         <f>LEN(C35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>150/150</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="13" t="str">
         <f>LEN(F35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>149/150</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
       <c r="K43" s="13" t="str">
         <f>LEN(I35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>148/150</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="13" t="str">
         <f>LEN(L35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>146/150</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="13" t="str">
         <f>LEN(O35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>148/150</v>
       </c>
       <c r="R43" s="11"/>
       <c r="S43" s="12"/>
       <c r="T43" s="14" t="str">
         <f>LEN(R35)&amp;"/150"</f>
-        <v>0/150</v>
+        <v>149/150</v>
       </c>
       <c r="V43" s="34"/>
       <c r="W43" s="34"/>
@@ -5195,9 +5890,42 @@
       <c r="AE43" s="34"/>
       <c r="AF43" s="34"/>
     </row>
-    <row r="44" spans="2:32" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="2:32" ht="18" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E3:H12"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="V15:Y24"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:E42"/>
+    <mergeCell ref="F35:H42"/>
+    <mergeCell ref="I35:K42"/>
+    <mergeCell ref="L35:N42"/>
+    <mergeCell ref="O35:Q42"/>
+    <mergeCell ref="R35:T42"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:E33"/>
+    <mergeCell ref="F26:H33"/>
+    <mergeCell ref="I26:K33"/>
+    <mergeCell ref="L26:N33"/>
+    <mergeCell ref="O26:Q33"/>
+    <mergeCell ref="R26:T33"/>
+    <mergeCell ref="R19:T24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:E24"/>
+    <mergeCell ref="F19:H24"/>
+    <mergeCell ref="I19:K24"/>
+    <mergeCell ref="L19:N24"/>
+    <mergeCell ref="O19:Q24"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="R14:T14"/>
     <mergeCell ref="Z15:AC24"/>
     <mergeCell ref="B3:D12"/>
@@ -5214,39 +5942,6 @@
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:E24"/>
-    <mergeCell ref="F19:H24"/>
-    <mergeCell ref="I19:K24"/>
-    <mergeCell ref="L19:N24"/>
-    <mergeCell ref="O19:Q24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="R26:T33"/>
-    <mergeCell ref="R19:T24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="E3:H12"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="V15:Y24"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:E42"/>
-    <mergeCell ref="F35:H42"/>
-    <mergeCell ref="I35:K42"/>
-    <mergeCell ref="L35:N42"/>
-    <mergeCell ref="O35:Q42"/>
-    <mergeCell ref="R35:T42"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:E33"/>
-    <mergeCell ref="F26:H33"/>
-    <mergeCell ref="I26:K33"/>
-    <mergeCell ref="L26:N33"/>
-    <mergeCell ref="O26:Q33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5260,30 +5955,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17460D-D00D-450C-BF8C-D5F3DD290267}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:G6"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="27.625" style="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.625" style="15" customWidth="1"/>
-    <col min="7" max="8" width="79.125" style="15" customWidth="1"/>
-    <col min="9" max="10" width="1.625" customWidth="1"/>
-    <col min="11" max="16384" width="9" hidden="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="15" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="7" width="27.59765625" style="15" customWidth="1"/>
+    <col min="8" max="9" width="79.09765625" style="15" customWidth="1"/>
+    <col min="10" max="11" width="1.59765625" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
         <v>23</v>
@@ -5298,14 +5992,17 @@
         <v>26</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="B3" s="88" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="B3" s="82" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -5314,79 +6011,84 @@
       <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="109" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="89"/>
-    </row>
-    <row r="4" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="85"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="B4" s="83"/>
       <c r="C4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="110" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-    </row>
-    <row r="5" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="85"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B5" s="83"/>
       <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="110" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-    </row>
-    <row r="6" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="85"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B6" s="83"/>
       <c r="C6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="110" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="103"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+    </row>
+    <row r="7" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="85" t="s">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="B8" s="83" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -5395,64 +6097,68 @@
       <c r="D8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="85"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B9" s="83"/>
       <c r="C9" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-    </row>
-    <row r="10" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="85"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+    </row>
+    <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B10" s="83"/>
       <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="103"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="21"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:8" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="B12" s="85" t="s">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="B12" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5461,62 +6167,72 @@
       <c r="D12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="87"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
+      <c r="G12" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="83"/>
       <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-    </row>
-    <row r="14" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
+      <c r="G13" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+    </row>
+    <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B14" s="83"/>
       <c r="C14" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-    </row>
-    <row r="15" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="111" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+    </row>
+    <row r="15" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="2:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="B16" s="85" t="s">
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="B16" s="83" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -5525,62 +6241,66 @@
       <c r="D16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="85"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="81"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="83"/>
       <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-    </row>
-    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="85"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+    </row>
+    <row r="18" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B18" s="83"/>
       <c r="C18" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-    </row>
-    <row r="19" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="103"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="21"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="2:8" ht="75" x14ac:dyDescent="0.4">
-      <c r="B20" s="85" t="s">
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="B20" s="83" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -5589,162 +6309,171 @@
       <c r="D20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="103"/>
+      <c r="H20" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="81"/>
+    </row>
+    <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B21" s="83"/>
+      <c r="C21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="86"/>
-    </row>
-    <row r="21" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="F21" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="103"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+    </row>
+    <row r="22" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B22" s="83"/>
+      <c r="C22" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-    </row>
-    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="E22" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="F22" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="103"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="83"/>
+      <c r="C23" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="E23" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="F23" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="103"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+    </row>
+    <row r="24" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="2:8" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="85" t="s">
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="B25" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="G25" s="108"/>
+      <c r="H25" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="79"/>
+    </row>
+    <row r="26" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B26" s="83"/>
+      <c r="C26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="87"/>
-    </row>
-    <row r="26" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="85"/>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="G26" s="108"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B27" s="83"/>
+      <c r="C27" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-    </row>
-    <row r="27" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B27" s="85"/>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-    </row>
-    <row r="28" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="108"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="106"/>
       <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="H3:H6"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I20:I23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5755,450 +6484,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B06DA12-3D5D-4129-A9B1-DB0CB826877A}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25:B27"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="28.125" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="6" width="30.625" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="89.625" style="15" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="30.59765625" style="15" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="6" max="6" width="31" style="15" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="89.59765625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
     <col min="9" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="86"/>
+      <c r="C2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="89" t="s">
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="85"/>
-      <c r="C4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="85"/>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="85"/>
-      <c r="C6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="87"/>
-    </row>
-    <row r="7" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="87" t="s">
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="92"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="93"/>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="92"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="93"/>
+      <c r="H5" t="str">
+        <f>"文字数："&amp;LEN(G3)</f>
+        <v>文字数：176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="93" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="85"/>
-      <c r="C9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="87"/>
-    </row>
-    <row r="10" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="85"/>
-      <c r="C10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="87"/>
-    </row>
-    <row r="11" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B12" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="87" t="s">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="92"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="92"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="93"/>
+      <c r="H8" t="str">
+        <f>"文字数："&amp;LEN(G6)</f>
+        <v>文字数：41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="93" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
-      <c r="C13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
-      <c r="C14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="87"/>
-    </row>
-    <row r="15" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="85"/>
-      <c r="C17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="86"/>
-    </row>
-    <row r="18" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="85"/>
-      <c r="C18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B20" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="86"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="86"/>
-    </row>
-    <row r="24" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="B25" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="85"/>
-      <c r="C26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="87"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="85"/>
-      <c r="C27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="87"/>
-    </row>
-    <row r="28" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="92"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="93"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="92"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="93"/>
+      <c r="H11" t="str">
+        <f>"文字数："&amp;LEN(G9)</f>
+        <v>文字数：13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="92"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="92"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="94"/>
+      <c r="H14" t="str">
+        <f>"文字数："&amp;LEN(G12)</f>
+        <v>文字数：175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="92"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="94"/>
+    </row>
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="95"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="96"/>
+      <c r="H17" t="str">
+        <f>"文字数："&amp;LEN(G15)</f>
+        <v>文字数：199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="G8:G10"/>
+  <mergeCells count="30">
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
